--- a/estrutura_simples.xlsx
+++ b/estrutura_simples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\StructAnalisys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC61AB9-7323-4AC7-8F63-C97AB14C74F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFC618-48DB-4CA1-9571-0086A858B0A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="1725" windowWidth="15375" windowHeight="7995" activeTab="5" xr2:uid="{91E98C6F-0C07-41E6-9DCD-A43E54F7C322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="595" firstSheet="2" activeTab="8" xr2:uid="{91E98C6F-0C07-41E6-9DCD-A43E54F7C322}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,26 @@
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
     <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
     <sheet name="Planilha6" sheetId="6" r:id="rId6"/>
+    <sheet name="EX1_ROT" sheetId="7" r:id="rId7"/>
+    <sheet name="EX1_ROT2" sheetId="8" r:id="rId8"/>
+    <sheet name="Planilha9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>nodes</t>
   </si>
@@ -157,6 +165,93 @@
   <si>
     <t>RA</t>
   </si>
+  <si>
+    <t>RIGIDEZ LOCAL</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>RIGIDEZ GLOBAL</t>
+  </si>
+  <si>
+    <t>3EI/L3</t>
+  </si>
+  <si>
+    <t>3EI/L2</t>
+  </si>
+  <si>
+    <t>3EI/L</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>kN/m</t>
+  </si>
+  <si>
+    <t>Qy</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>qi</t>
+  </si>
+  <si>
+    <t>qj</t>
+  </si>
+  <si>
+    <t>qix</t>
+  </si>
+  <si>
+    <t>qiy</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>qjy</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Nj</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Vj</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Mj</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -435,11 +530,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -531,6 +637,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,24 +649,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -3368,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EC4B9E-8376-4FDC-B88B-279829C48DE1}">
   <dimension ref="B2:AH41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView showGridLines="0" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4672,7 @@
       <c r="AG16" s="18">
         <v>1</v>
       </c>
-      <c r="AH16" s="37">
+      <c r="AH16" s="38">
         <v>1</v>
       </c>
     </row>
@@ -4661,7 +4769,7 @@
       <c r="AG17" s="13">
         <v>2</v>
       </c>
-      <c r="AH17" s="38"/>
+      <c r="AH17" s="39"/>
     </row>
     <row r="18" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -4757,7 +4865,7 @@
       <c r="AG18" s="21">
         <v>3</v>
       </c>
-      <c r="AH18" s="39"/>
+      <c r="AH18" s="40"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -4852,7 +4960,7 @@
       <c r="AG19" s="18">
         <v>4</v>
       </c>
-      <c r="AH19" s="37">
+      <c r="AH19" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4949,7 +5057,7 @@
       <c r="AG20" s="13">
         <v>5</v>
       </c>
-      <c r="AH20" s="38"/>
+      <c r="AH20" s="39"/>
     </row>
     <row r="21" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
@@ -5044,7 +5152,7 @@
       <c r="AG21" s="21">
         <v>6</v>
       </c>
-      <c r="AH21" s="39"/>
+      <c r="AH21" s="40"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -5139,7 +5247,7 @@
       <c r="AG22" s="18">
         <v>7</v>
       </c>
-      <c r="AH22" s="37">
+      <c r="AH22" s="38">
         <v>3</v>
       </c>
     </row>
@@ -5238,7 +5346,7 @@
       <c r="AG23" s="13">
         <v>8</v>
       </c>
-      <c r="AH23" s="38"/>
+      <c r="AH23" s="39"/>
     </row>
     <row r="24" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
@@ -5335,7 +5443,7 @@
       <c r="AG24" s="21">
         <v>9</v>
       </c>
-      <c r="AH24" s="39"/>
+      <c r="AH24" s="40"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
@@ -5430,7 +5538,7 @@
       <c r="AG25" s="18">
         <v>10</v>
       </c>
-      <c r="AH25" s="37">
+      <c r="AH25" s="38">
         <v>4</v>
       </c>
     </row>
@@ -5529,7 +5637,7 @@
       <c r="AG26" s="13">
         <v>11</v>
       </c>
-      <c r="AH26" s="38"/>
+      <c r="AH26" s="39"/>
     </row>
     <row r="27" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
@@ -5627,7 +5735,7 @@
       <c r="AG27" s="21">
         <v>12</v>
       </c>
-      <c r="AH27" s="39"/>
+      <c r="AH27" s="40"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
@@ -9815,27 +9923,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R18 A21:Q37 T21:T37 V21:V37">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AO18">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V18">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AQ18">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10356,8 +10464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBA9356-6668-4ED0-9438-BCD857484656}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10406,7 +10514,7 @@
       <c r="N1" s="6">
         <v>0</v>
       </c>
-      <c r="P1" s="40">
+      <c r="P1" s="37">
         <f t="array" ref="P1:P11">MMULT(MINVERSE(A1:K11),N1:N11)</f>
         <v>0</v>
       </c>
@@ -10451,7 +10559,7 @@
       <c r="N2" s="6">
         <v>0</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10495,7 +10603,7 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="P3" s="40">
+      <c r="P3" s="37">
         <v>-1.2336932747084085E-3</v>
       </c>
     </row>
@@ -10539,7 +10647,7 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10583,7 +10691,7 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10627,7 +10735,7 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="37">
         <v>-1.0276310381585409E-2</v>
       </c>
     </row>
@@ -10671,7 +10779,7 @@
       <c r="N7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="37">
         <v>3.6083499225952852E-2</v>
       </c>
     </row>
@@ -10715,7 +10823,7 @@
       <c r="N8" s="6">
         <v>-55.694600000000001</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="37">
         <v>-7.9610832618488429E-5</v>
       </c>
     </row>
@@ -10759,7 +10867,7 @@
       <c r="N9" s="6">
         <v>-53.310400000000001</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="37">
         <v>-6.5100036562938156E-3</v>
       </c>
     </row>
@@ -10803,7 +10911,7 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="37">
         <v>3.6188336058113314E-2</v>
       </c>
     </row>
@@ -10847,7 +10955,7 @@
       <c r="N11" s="6">
         <v>-45.694600000000001</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="37">
         <v>-3.4772433476302312E-4</v>
       </c>
     </row>
@@ -10894,7 +11002,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10910,4 +11018,7686 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E83C0E5-739D-4D74-B12D-5C22178FDC6E}">
+  <dimension ref="B1:BM33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25:AK25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.28515625" customWidth="1"/>
+    <col min="17" max="22" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="37" width="9.28515625" style="4" customWidth="1"/>
+    <col min="38" max="51" width="9.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>4</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1">
+        <v>2</v>
+      </c>
+      <c r="BC1">
+        <v>3</v>
+      </c>
+      <c r="BD1">
+        <v>4</v>
+      </c>
+      <c r="BE1">
+        <v>5</v>
+      </c>
+      <c r="BF1">
+        <v>6</v>
+      </c>
+      <c r="BG1">
+        <v>7</v>
+      </c>
+      <c r="BH1">
+        <v>8</v>
+      </c>
+      <c r="BI1">
+        <v>9</v>
+      </c>
+      <c r="BJ1">
+        <v>10</v>
+      </c>
+      <c r="BK1">
+        <v>11</v>
+      </c>
+      <c r="BL1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="5">
+        <f>W10</f>
+        <v>399997.81125699996</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="5">
+        <f>-AF2</f>
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="5">
+        <f>O10</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="6">
+        <f>P10</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="6">
+        <f t="array" ref="AT2:AY7">MMULT(TRANSPOSE(AM2:AR7),MMULT(AF2:AK7,AM2:AR7))</f>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <f>X10</f>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="AH3" s="5">
+        <f>Y10</f>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5">
+        <f>-AG3</f>
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="AK3" s="5">
+        <f>AH3</f>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="6">
+        <f>-AN2</f>
+        <v>-1</v>
+      </c>
+      <c r="AN3" s="5">
+        <f>AM2</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>399997.81125699996</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="AY3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>Y10</f>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>AA10</f>
+        <v>79999.547949019572</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f>-AG4</f>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AK4" s="5">
+        <f>Z10</f>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>79999.547949019572</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <f>-AF2</f>
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
+        <f>AF2</f>
+        <v>399997.81125699996</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="5">
+        <f>AM2</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f>AN2</f>
+        <v>1</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>14999.915240441171</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <f>AJ3</f>
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="AH6" s="5">
+        <f>-AH3</f>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f>AG3</f>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="AK6" s="5">
+        <f>-AH3</f>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="6">
+        <f>AM3</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f>AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>399997.81125699996</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <f>AG4</f>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AH7" s="5">
+        <f>Z10</f>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f>-AG4</f>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AK7" s="5">
+        <f>AA10</f>
+        <v>79999.547949019572</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AX7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="6">
+        <v>79999.547949019572</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="F10" s="1">
+        <f>0.0103279*0.7745966</f>
+        <v>7.9999562251399994E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <f>0.0103279*0.7745966^3/12</f>
+        <v>3.9999773974509789E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <f>VLOOKUP(C10,$B$3:$J$6,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>VLOOKUP(C10,$B$3:$J$6,3,)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f>VLOOKUP(D10,$B$3:$J$6,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f>VLOOKUP(D10,$B$3:$J$6,3,)</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <f>J10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>K10-I10</f>
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SQRT(L10^2+M10^2)</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <f>L10/N10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>M10/N10</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>3*$C10-2</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <f>3*$C10-1</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <f>3*$C10</f>
+        <v>6</v>
+      </c>
+      <c r="T10" s="1">
+        <f>3*$D10-2</f>
+        <v>7</v>
+      </c>
+      <c r="U10" s="1">
+        <f>3*$D10-1</f>
+        <v>8</v>
+      </c>
+      <c r="V10" s="1">
+        <f>3*$D10</f>
+        <v>9</v>
+      </c>
+      <c r="W10" s="2">
+        <f>E10*F10/N10</f>
+        <v>399997.81125699996</v>
+      </c>
+      <c r="X10" s="2">
+        <f>12*E10*G10/N10^3</f>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>6*E10*G10/N10^2</f>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>2*E10*G10/N10</f>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AA10" s="2">
+        <f>4*E10*G10/N10</f>
+        <v>79999.547949019572</v>
+      </c>
+      <c r="AB10" s="42">
+        <f>3*E10*G10/N10^3</f>
+        <v>3749.9788101102927</v>
+      </c>
+      <c r="AC10" s="42">
+        <f>3*E10*G10/N10^2</f>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="AD10" s="42">
+        <f>3*E10*G10/N10</f>
+        <v>59999.660961764683</v>
+      </c>
+      <c r="AF10" s="5">
+        <f>W11</f>
+        <v>210089.14299141295</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <f>-AF10</f>
+        <v>-210089.14299141295</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="45">
+        <f>O11</f>
+        <v>0.91914503001805781</v>
+      </c>
+      <c r="AN10" s="45">
+        <f>P11</f>
+        <v>0.39391929857916763</v>
+      </c>
+      <c r="AO10" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="6">
+        <f t="array" ref="AT10:AY15">MMULT(TRANSPOSE(AM10:AR15),MMULT(AF10:AK15,AM10:AR15))</f>
+        <v>177573.41399343879</v>
+      </c>
+      <c r="AU10" s="6">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AV10" s="6">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="AW10" s="6">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="AX10" s="6">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AY10" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F12" si="0">0.0103279*0.7745966</f>
+        <v>7.9999562251399994E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G12" si="1">0.0103279*0.7745966^3/12</f>
+        <v>3.9999773974509789E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H12" si="2">VLOOKUP(C11,$B$3:$J$6,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11:I12" si="3">VLOOKUP(C11,$B$3:$J$6,3,)</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J12" si="4">VLOOKUP(D11,$B$3:$J$6,2,)</f>
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K12" si="5">VLOOKUP(D11,$B$3:$J$6,3,)</f>
+        <v>7</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:M12" si="6">J11-H11</f>
+        <v>7</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N12" si="7">SQRT(L11^2+M11^2)</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O12" si="8">L11/N11</f>
+        <v>0.91914503001805781</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P12" si="9">M11/N11</f>
+        <v>0.39391929857916763</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>3*$C11-2</f>
+        <v>7</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R12" si="10">3*$C11-1</f>
+        <v>8</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S12" si="11">3*$C11</f>
+        <v>9</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T12" si="12">3*$D11-2</f>
+        <v>10</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U12" si="13">3*$D11-1</f>
+        <v>11</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" ref="V11:V12" si="14">3*$D11</f>
+        <v>12</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" ref="W11:W12" si="15">E11*F11/N11</f>
+        <v>210089.14299141295</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" ref="X11:X12" si="16">12*E11*G11/N11^3</f>
+        <v>2173.3355734295365</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" ref="Y11:Y12" si="17">6*E11*G11/N11^2</f>
+        <v>8275.8153050709898</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" ref="Z11:Z12" si="18">2*E11*G11/N11</f>
+        <v>21008.910543152186</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" ref="AA11:AA12" si="19">4*E11*G11/N11</f>
+        <v>42017.821086304371</v>
+      </c>
+      <c r="AB11" s="42">
+        <f t="shared" ref="AB11:AB12" si="20">3*E11*G11/N11^3</f>
+        <v>543.33389335738411</v>
+      </c>
+      <c r="AC11" s="42">
+        <f t="shared" ref="AC11:AC12" si="21">3*E11*G11/N11^2</f>
+        <v>4137.9076525354949</v>
+      </c>
+      <c r="AD11" s="42">
+        <f t="shared" ref="AD11:AD12" si="22">3*E11*G11/N11</f>
+        <v>31513.36581472828</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <f>AB11</f>
+        <v>543.33389335738411</v>
+      </c>
+      <c r="AH11" s="5">
+        <f>AC11</f>
+        <v>4137.9076525354949</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <f>-AB11</f>
+        <v>-543.33389335738411</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="45">
+        <f>-AN10</f>
+        <v>-0.39391929857916763</v>
+      </c>
+      <c r="AN11" s="45">
+        <f>AM10</f>
+        <v>0.91914503001805781</v>
+      </c>
+      <c r="AO11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="6">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AU11" s="6">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AX11" s="6">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9999562251399994E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9999773974509789E-4</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ref="Q12" si="23">3*$C12-2</f>
+        <v>10</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="15"/>
+        <v>199998.90562849998</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="16"/>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="17"/>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="18"/>
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="19"/>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AB12" s="42">
+        <f t="shared" si="20"/>
+        <v>468.74735126378658</v>
+      </c>
+      <c r="AC12" s="42">
+        <f t="shared" si="21"/>
+        <v>3749.9788101102927</v>
+      </c>
+      <c r="AD12" s="42">
+        <f t="shared" si="22"/>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <f>AC11</f>
+        <v>4137.9076525354949</v>
+      </c>
+      <c r="AH12" s="5">
+        <f>AD11</f>
+        <v>31513.36581472828</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5">
+        <f>-AC11</f>
+        <v>-4137.9076525354949</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="45">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="6">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="AU12" s="6">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>31513.36581472828</v>
+      </c>
+      <c r="AW12" s="6">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="AX12" s="6">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF13" s="5">
+        <f>-AF10</f>
+        <v>-210089.14299141295</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5">
+        <f>AF10</f>
+        <v>210089.14299141295</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="45">
+        <f>AM10</f>
+        <v>0.91914503001805781</v>
+      </c>
+      <c r="AQ13" s="45">
+        <f>AN10</f>
+        <v>0.39391929857916763</v>
+      </c>
+      <c r="AR13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="6">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="AU13" s="6">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AV13" s="6">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="AW13" s="6">
+        <v>177573.41399343879</v>
+      </c>
+      <c r="AX13" s="6">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AY13" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <f>AJ11</f>
+        <v>-543.33389335738411</v>
+      </c>
+      <c r="AH14" s="5">
+        <f>AJ12</f>
+        <v>-4137.9076525354949</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5">
+        <f>AG11</f>
+        <v>543.33389335738411</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="45">
+        <f>AM11</f>
+        <v>-0.39391929857916763</v>
+      </c>
+      <c r="AQ14" s="45">
+        <f>AP13</f>
+        <v>0.91914503001805781</v>
+      </c>
+      <c r="AR14" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="6">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AU14" s="6">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="AV14" s="6">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="AW14" s="6">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AX14" s="6">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="AY14" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="45">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF18" s="5">
+        <f>W12</f>
+        <v>199998.90562849998</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <f>-AF18</f>
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="5">
+        <f>O12</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="6">
+        <f>P12</f>
+        <v>-1</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="6">
+        <f t="array" ref="AT18:AY23">MMULT(TRANSPOSE(AM18:AR23),MMULT(AF18:AK23,AM18:AR23))</f>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="AU18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="6">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AW18" s="6">
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="AX18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="6">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>X12</f>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>Y12</f>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5">
+        <f>-AG19</f>
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="AK19" s="5">
+        <f>AH19</f>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AM19" s="6">
+        <f>-AN18</f>
+        <v>1</v>
+      </c>
+      <c r="AN19" s="5">
+        <f>AM18</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="6">
+        <v>199998.90562849998</v>
+      </c>
+      <c r="AV19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="6">
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="AY19" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <f>Y12</f>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AH20" s="5">
+        <f>AA12</f>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5">
+        <f>-AG20</f>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AK20" s="5">
+        <f>Z12</f>
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AU20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="6">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AW20" s="6">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AX20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF21" s="5">
+        <f>-AF18</f>
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <f>AF18</f>
+        <v>199998.90562849998</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="5">
+        <f>AM18</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="6">
+        <f>AN18</f>
+        <v>-1</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="6">
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="AU21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="6">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AW21" s="6">
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="AX21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="6">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <f>AJ19</f>
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="AH22" s="5">
+        <f>-AH19</f>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5">
+        <f>AG19</f>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="AK22" s="5">
+        <f>-AH19</f>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="6">
+        <f>AM19</f>
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="5">
+        <f>AP21</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="6">
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="AV22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="6">
+        <v>199998.90562849998</v>
+      </c>
+      <c r="AY22" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <f>AG20</f>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AH23" s="5">
+        <f>Z12</f>
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <f>-AG20</f>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AK23" s="5">
+        <f>AA12</f>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AM23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="6">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AU23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="6">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AW23" s="6">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AX23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="6">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AF25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AM25" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AT25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+    </row>
+    <row r="28" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AM28" s="46">
+        <f t="array" ref="AM28:AR33">MMULT(AF10:AK15,AM10:AR15)</f>
+        <v>193102.3916413103</v>
+      </c>
+      <c r="AN28" s="46">
+        <v>82758.167846275843</v>
+      </c>
+      <c r="AO28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="46">
+        <v>-193102.3916413103</v>
+      </c>
+      <c r="AQ28" s="46">
+        <v>-82758.167846275843</v>
+      </c>
+      <c r="AR28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="array" ref="AT28:AY33">MMULT(TRANSPOSE(AM10:AR15),AM28:AR33)</f>
+        <v>177573.41399343879</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AM29" s="46">
+        <v>-214.02970616562902</v>
+      </c>
+      <c r="AN29" s="46">
+        <v>499.40264771980105</v>
+      </c>
+      <c r="AO29" s="46">
+        <v>4137.9076525354949</v>
+      </c>
+      <c r="AP29" s="46">
+        <v>214.02970616562902</v>
+      </c>
+      <c r="AQ29" s="46">
+        <v>-499.40264771980105</v>
+      </c>
+      <c r="AR29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="AW29" s="4">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AM30" s="46">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="AN30" s="46">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="AO30" s="46">
+        <v>31513.36581472828</v>
+      </c>
+      <c r="AP30" s="46">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="AQ30" s="46">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="AR30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>31513.36581472828</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AM31" s="46">
+        <v>-193102.3916413103</v>
+      </c>
+      <c r="AN31" s="46">
+        <v>-82758.167846275843</v>
+      </c>
+      <c r="AO31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="46">
+        <v>193102.3916413103</v>
+      </c>
+      <c r="AQ31" s="46">
+        <v>82758.167846275843</v>
+      </c>
+      <c r="AR31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>177573.41399343879</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="32:64" x14ac:dyDescent="0.25">
+      <c r="AM32" s="46">
+        <v>214.02970616562902</v>
+      </c>
+      <c r="AN32" s="46">
+        <v>-499.40264771980105</v>
+      </c>
+      <c r="AO32" s="46">
+        <v>-4137.9076525354949</v>
+      </c>
+      <c r="AP32" s="46">
+        <v>-214.02970616562902</v>
+      </c>
+      <c r="AQ32" s="46">
+        <v>499.40264771980105</v>
+      </c>
+      <c r="AR32" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="39:51" x14ac:dyDescent="0.25">
+      <c r="AM33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="AM25:AR25"/>
+    <mergeCell ref="AT25:AY25"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349AB898-6469-4D4A-82F4-82F973094C08}">
+  <dimension ref="B2:AZ54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4" style="7" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" style="7" customWidth="1"/>
+    <col min="41" max="46" width="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <f t="array" ref="B2:M13">MMULT(TRANSPOSE(EX1_ROT!BA2:BL7),MMULT(EX1_ROT!AT2:AY7,EX1_ROT!BA2:BL7))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>SUM(B2,B16,B30)</f>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:Z13" si="0">SUM(C2,C16,C30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <f t="shared" si="0"/>
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="Y2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f t="shared" si="0"/>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1875</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>-7500</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>-1875</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>-7500</v>
+      </c>
+      <c r="AO2" s="44">
+        <f>ABS(AB2-O2)</f>
+        <v>1.0594944853664856E-2</v>
+      </c>
+      <c r="AP2" s="44">
+        <f t="shared" ref="AP2:AW13" si="1">ABS(AC2-P2)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="44">
+        <f t="shared" si="1"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AR2" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="44">
+        <f>ABS(AJ2-W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="44">
+        <f t="shared" ref="AX2:AZ13" si="2">ABS(AK2-X2)</f>
+        <v>1.0594944853664856E-2</v>
+      </c>
+      <c r="AY2" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O13" si="3">SUM(B3,B17,B31)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>199998.90562849998</v>
+      </c>
+      <c r="Q3" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>200000</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>-200000</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="44">
+        <f t="shared" ref="AO3:AO13" si="4">ABS(AB3-O3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="44">
+        <f t="shared" si="1"/>
+        <v>1.0943715000175871</v>
+      </c>
+      <c r="AQ3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="44">
+        <f t="shared" si="2"/>
+        <v>1.0943715000175871</v>
+      </c>
+      <c r="AZ3" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="3"/>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>SUM(D4,D18,D32)+80000</f>
+        <v>119999.77397450979</v>
+      </c>
+      <c r="R4" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="0"/>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="0"/>
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>-7500</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>120000</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>7500</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>20000</v>
+      </c>
+      <c r="AO4" s="44">
+        <f t="shared" si="4"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AP4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="44">
+        <f t="shared" si="1"/>
+        <v>0.22602549020666629</v>
+      </c>
+      <c r="AR4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AY4" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="44">
+        <f t="shared" si="2"/>
+        <v>0.11301274510697112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14999.915240441171</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>14999.915240441171</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>-30000</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>-15000</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>-30000</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="44">
+        <f t="shared" si="1"/>
+        <v>8.4759558829318848E-2</v>
+      </c>
+      <c r="AS5" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AU5" s="44">
+        <f t="shared" si="1"/>
+        <v>8.4759558829318848E-2</v>
+      </c>
+      <c r="AV5" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AX5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>399997.81125699996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>399997.81125699996</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>400000</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>-400000</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1887430000351742</v>
+      </c>
+      <c r="AT6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1887430000351742</v>
+      </c>
+      <c r="AW6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>79999.547949019572</v>
+      </c>
+      <c r="H7" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>79999.547949019572</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>-30000</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>80000</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>30000</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>40000</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AS7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="44">
+        <f t="shared" si="1"/>
+        <v>0.4520509804278845</v>
+      </c>
+      <c r="AU7" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AV7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="44">
+        <f t="shared" si="1"/>
+        <v>0.22602549021394225</v>
+      </c>
+      <c r="AX7" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14999.915240441171</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>-14999.915240441171</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>29999.830480882341</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>192573.32923387995</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>75870.034328606314</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>28369.828800810188</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="0"/>
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="0"/>
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>-15000</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>30000</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>192574.38570000001</v>
+      </c>
+      <c r="AI8">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="AJ8">
+        <v>28369.989099999999</v>
+      </c>
+      <c r="AK8">
+        <v>-177574.38570000001</v>
+      </c>
+      <c r="AL8">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="44">
+        <f t="shared" si="1"/>
+        <v>8.4759558829318848E-2</v>
+      </c>
+      <c r="AS8" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AU8" s="44">
+        <f t="shared" si="1"/>
+        <v>1.0564661200623959</v>
+      </c>
+      <c r="AV8" s="44">
+        <f t="shared" si="1"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AW8" s="44">
+        <f t="shared" si="1"/>
+        <v>0.16029918981075753</v>
+      </c>
+      <c r="AX8" s="44">
+        <f t="shared" si="2"/>
+        <v>0.97170656122034416</v>
+      </c>
+      <c r="AY8" s="44">
+        <f t="shared" si="2"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AZ8" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>399997.81125699996</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>-399997.81125699996</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>75870.034328606314</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>433056.87414833147</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="0"/>
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="0"/>
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>-400000</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="AI9">
+        <v>433059.2439</v>
+      </c>
+      <c r="AJ9">
+        <v>3803.3587000000002</v>
+      </c>
+      <c r="AK9">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="AL9">
+        <v>-33059.243900000001</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1887430000351742</v>
+      </c>
+      <c r="AT9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="44">
+        <f t="shared" si="1"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AV9" s="44">
+        <f t="shared" si="1"/>
+        <v>2.3697516685351729</v>
+      </c>
+      <c r="AW9" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1446498311888718E-2</v>
+      </c>
+      <c r="AX9" s="44">
+        <f t="shared" si="2"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AY9" s="44">
+        <f t="shared" si="2"/>
+        <v>0.18100866848544683</v>
+      </c>
+      <c r="AZ9" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="H10" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>79999.547949019572</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>-29999.830480882341</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>28369.828800810188</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>111512.91376374786</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="0"/>
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>-30000</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>40000</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>28369.989099999999</v>
+      </c>
+      <c r="AI10">
+        <v>3803.3587000000002</v>
+      </c>
+      <c r="AJ10">
+        <v>111513.5439</v>
+      </c>
+      <c r="AK10">
+        <v>1630.0109</v>
+      </c>
+      <c r="AL10">
+        <v>-3803.3587000000002</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="AS10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="44">
+        <f t="shared" si="1"/>
+        <v>0.22602549021394225</v>
+      </c>
+      <c r="AU10" s="44">
+        <f t="shared" si="1"/>
+        <v>0.16029918981075753</v>
+      </c>
+      <c r="AV10" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1446498311888718E-2</v>
+      </c>
+      <c r="AW10" s="44">
+        <f t="shared" si="1"/>
+        <v>0.63013625214807689</v>
+      </c>
+      <c r="AX10" s="44">
+        <f t="shared" si="2"/>
+        <v>9.2199278476527979E-3</v>
+      </c>
+      <c r="AY10" s="44">
+        <f t="shared" si="2"/>
+        <v>2.1446498311888718E-2</v>
+      </c>
+      <c r="AZ10" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="0"/>
+        <v>179448.40339849395</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="0"/>
+        <v>75870.034328606314</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="0"/>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>-1875</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>7500</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>-177574.38570000001</v>
+      </c>
+      <c r="AI11">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="AJ11">
+        <v>1630.0109</v>
+      </c>
+      <c r="AK11">
+        <v>179449.38570000001</v>
+      </c>
+      <c r="AL11">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="AM11">
+        <v>7500</v>
+      </c>
+      <c r="AO11" s="44">
+        <f t="shared" si="4"/>
+        <v>1.0594944853664856E-2</v>
+      </c>
+      <c r="AP11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="44">
+        <f t="shared" si="1"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AR11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="44">
+        <f t="shared" si="1"/>
+        <v>0.97170656122034416</v>
+      </c>
+      <c r="AV11" s="44">
+        <f t="shared" si="1"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AW11" s="44">
+        <f t="shared" si="1"/>
+        <v>9.2199278476527979E-3</v>
+      </c>
+      <c r="AX11" s="44">
+        <f t="shared" si="2"/>
+        <v>0.98230150606832467</v>
+      </c>
+      <c r="AY11" s="44">
+        <f t="shared" si="2"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AZ11" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="0"/>
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="0"/>
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="0"/>
+        <v>75870.034328606314</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="0"/>
+        <v>233057.96851983148</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>-200000</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="AI12">
+        <v>-33059.243900000001</v>
+      </c>
+      <c r="AJ12">
+        <v>-3803.3587000000002</v>
+      </c>
+      <c r="AK12">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="AL12">
+        <v>233059.2439</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="44">
+        <f t="shared" si="1"/>
+        <v>1.0943715000175871</v>
+      </c>
+      <c r="AQ12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="44">
+        <f t="shared" si="1"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AV12" s="44">
+        <f t="shared" si="1"/>
+        <v>0.18100866848544683</v>
+      </c>
+      <c r="AW12" s="44">
+        <f t="shared" si="1"/>
+        <v>2.1446498311888718E-2</v>
+      </c>
+      <c r="AX12" s="44">
+        <f t="shared" si="2"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="AY12" s="44">
+        <f t="shared" si="2"/>
+        <v>1.2753801685175858</v>
+      </c>
+      <c r="AZ12" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>19999.886987254893</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="0"/>
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="0"/>
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>-7500</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>7500</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>40000</v>
+      </c>
+      <c r="AO13" s="44">
+        <f t="shared" si="4"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AP13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="44">
+        <f t="shared" si="1"/>
+        <v>0.11301274510697112</v>
+      </c>
+      <c r="AR13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="AY13" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="44">
+        <f t="shared" si="2"/>
+        <v>0.22602549021394225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>8</v>
+      </c>
+      <c r="W15">
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f t="array" ref="B16:M27">MMULT(TRANSPOSE(EX1_ROT!BA10:BL15),MMULT(EX1_ROT!AT10:AY15,EX1_ROT!BA10:BL15))</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="9">
+        <f>SUM(AB16:AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16">
+        <f t="array" ref="AE16:AE27">MMULT(MINVERSE(O30:Z41),AD16:AD27)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
+        <f t="array" ref="AF16:AF27">MMULT(O2:Z13,AE16:AE27)</f>
+        <v>-13.225143695039748</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="10">
+        <f t="shared" ref="AD17:AD27" si="5">SUM(AB17:AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>61.04051867092069</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="39"/>
+    </row>
+    <row r="18" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>39999.7739745098+80000</f>
+        <v>119999.77397450979</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>-1.3225218425951706E-3</v>
+      </c>
+      <c r="AF18" s="20">
+        <v>-5.9784729560874439E-4</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="40"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>-36.774573773097302</v>
+      </c>
+      <c r="AG19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>40.348126541824847</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="39"/>
+    </row>
+    <row r="21" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>79999.547949019572</v>
+      </c>
+      <c r="U21" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="19">
+        <v>-1.0910337835204066E-2</v>
+      </c>
+      <c r="AF21" s="20">
+        <v>-1.1368683772161603E-13</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="40"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>177573.41399343879</v>
+      </c>
+      <c r="I22" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>29999.830480882341</v>
+      </c>
+      <c r="U22" s="1">
+        <v>192573.32923387995</v>
+      </c>
+      <c r="V22" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="W22" s="1">
+        <v>31629.832160954495</v>
+      </c>
+      <c r="X22" s="1">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>4.1360999999999999</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="5"/>
+        <v>54.136099999999999</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>3.8738047130943164E-2</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>54.13579504421083</v>
+      </c>
+      <c r="AG22" s="18">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="I23" s="1">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="V23" s="1">
+        <v>433056.87414833147</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>-10</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>-55.345599999999997</v>
+      </c>
+      <c r="AD23" s="10">
+        <f t="shared" si="5"/>
+        <v>-65.34559999999999</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>-1.008708683055794E-4</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>-65.345237872531527</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>8</v>
+      </c>
+      <c r="AH23" s="39"/>
+    </row>
+    <row r="24" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="J24" s="1">
+        <v>31513.36581472828</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="U24" s="1">
+        <v>31629.832160954495</v>
+      </c>
+      <c r="V24" s="1">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="W24" s="1">
+        <v>111512.91376374786</v>
+      </c>
+      <c r="X24" s="1">
+        <v>-1630.0016800721523</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>3803.3372535016883</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>-79.965599999999995</v>
+      </c>
+      <c r="AD24" s="11">
+        <f t="shared" si="5"/>
+        <v>-79.965599999999995</v>
+      </c>
+      <c r="AE24" s="19">
+        <v>-7.2328596777992468E-3</v>
+      </c>
+      <c r="AF24" s="20">
+        <v>-79.965148035900597</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="40"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-177573.41399343879</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="K25" s="1">
+        <v>177573.41399343879</v>
+      </c>
+      <c r="L25" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-177404.79312998304</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-76263.483010003038</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1630.0016800721523</v>
+      </c>
+      <c r="X25" s="1">
+        <v>179279.78253503819</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>76263.483010003038</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="12">
+        <f>-AC22</f>
+        <v>-4.1360999999999999</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="5"/>
+        <v>-4.1360999999999999</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>3.8793974049458342E-2</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>-4.1360775760737809</v>
+      </c>
+      <c r="AG25" s="18">
+        <v>10</v>
+      </c>
+      <c r="AH25" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-75870.034328606314</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-33059.062891331516</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="K26" s="1">
+        <v>75870.034328606314</v>
+      </c>
+      <c r="L26" s="1">
+        <v>33059.062891331516</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>11</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>-76263.483010003038</v>
+      </c>
+      <c r="V26" s="1">
+        <v>-32141.01596807249</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-3803.3372535016883</v>
+      </c>
+      <c r="X26" s="1">
+        <v>76263.483010003038</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>232139.92159657247</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>-36.043599999999998</v>
+      </c>
+      <c r="AD26" s="10">
+        <f t="shared" si="5"/>
+        <v>-36.043599999999998</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>-3.0520426338884112E-4</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>-36.043407340214131</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH26" s="39"/>
+    </row>
+    <row r="27" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>-6.6126092129758559E-3</v>
+      </c>
+      <c r="AF27" s="20">
+        <v>-5.6843418860808015E-14</v>
+      </c>
+      <c r="AG27" s="21">
+        <v>12</v>
+      </c>
+      <c r="AH27" s="40"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f t="array" ref="B30:M41">MMULT(TRANSPOSE(EX1_ROT!BA18:BL23),MMULT(EX1_ROT!AT18:AY23,EX1_ROT!BA18:BL23))</f>
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>199998.90562849998</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>120000</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>7500</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>80000</v>
+      </c>
+      <c r="U35">
+        <v>30000</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>40000</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>30000</v>
+      </c>
+      <c r="U36">
+        <v>192574.38570000001</v>
+      </c>
+      <c r="V36">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="W36">
+        <v>28369.989099999999</v>
+      </c>
+      <c r="X36">
+        <v>-177574.38570000001</v>
+      </c>
+      <c r="Y36">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="V37">
+        <v>433059.2439</v>
+      </c>
+      <c r="W37">
+        <v>3803.3587000000002</v>
+      </c>
+      <c r="X37">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="Y37">
+        <v>-33059.243900000001</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>40000</v>
+      </c>
+      <c r="U38">
+        <v>28369.989099999999</v>
+      </c>
+      <c r="V38">
+        <v>3803.3587000000002</v>
+      </c>
+      <c r="W38">
+        <v>111513.5439</v>
+      </c>
+      <c r="X38">
+        <v>1630.0109</v>
+      </c>
+      <c r="Y38">
+        <v>-3803.3587000000002</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>-1874.9894050551463</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1874.9894050551463</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>7500</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>-177574.38570000001</v>
+      </c>
+      <c r="V39">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="W39">
+        <v>1630.0109</v>
+      </c>
+      <c r="X39">
+        <v>179449.38570000001</v>
+      </c>
+      <c r="Y39">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="Z39">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-199998.90562849998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>199998.90562849998</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>-75870.449399999998</v>
+      </c>
+      <c r="V40">
+        <v>-33059.243900000001</v>
+      </c>
+      <c r="W40">
+        <v>-3803.3587000000002</v>
+      </c>
+      <c r="X40">
+        <v>75870.449399999998</v>
+      </c>
+      <c r="Y40">
+        <v>233059.2439</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>-7499.9576202205853</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19999.886987254893</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7499.9576202205853</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>39999.773974509786</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>20000</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>7500</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f>ABS(O30-O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:Z43" si="6">ABS(P30-P16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f t="shared" ref="O44:Z44" si="7">ABS(O31-O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f t="shared" ref="O45:Z45" si="8">ABS(O32-O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>0.22602549020666629</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="8"/>
+        <v>0.11301274510697112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <f t="shared" ref="O46:Z46" si="9">ABS(O33-O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <f t="shared" ref="O47:Z47" si="10">ABS(O34-O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f t="shared" ref="O48:Z48" si="11">ABS(O35-O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="11"/>
+        <v>0.4520509804278845</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="11"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="11"/>
+        <v>0.22602549021394225</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f t="shared" ref="O49:Z49" si="12">ABS(O36-O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="12"/>
+        <v>0.1695191176586377</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="12"/>
+        <v>1.0564661200623959</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="12"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="12"/>
+        <v>3259.8430609544957</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="12"/>
+        <v>0.97170656122034416</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="12"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <f t="shared" ref="O50:Z50" si="13">ABS(O37-O23)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="13"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="13"/>
+        <v>2.3697516685351729</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="13"/>
+        <v>7606.6959535016886</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="13"/>
+        <v>0.41507139368331991</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="13"/>
+        <v>0.18100866848544683</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <f t="shared" ref="O51:Z51" si="14">ABS(O38-O24)</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="14"/>
+        <v>0.22602549021394225</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="14"/>
+        <v>3259.8430609544957</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="14"/>
+        <v>7606.6959535016886</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="14"/>
+        <v>0.63013625214807689</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="14"/>
+        <v>3260.0125800721526</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="14"/>
+        <v>7606.6959535016886</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f t="shared" ref="O52:Z52" si="15">ABS(O39-O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="15"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="15"/>
+        <v>169.59257001697551</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="15"/>
+        <v>393.03361000303994</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="15"/>
+        <v>9.2199278476527979E-3</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="15"/>
+        <v>169.6031649618235</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="15"/>
+        <v>393.03361000303994</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="15"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f t="shared" ref="O53:Z53" si="16">ABS(O40-O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="16"/>
+        <v>393.03361000303994</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="16"/>
+        <v>918.22793192751124</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="16"/>
+        <v>2.1446498311888718E-2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="16"/>
+        <v>393.03361000303994</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="16"/>
+        <v>919.32230342752882</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f t="shared" ref="O54:Z56" si="17">ABS(O41-O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="17"/>
+        <v>0.11301274510697112</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="17"/>
+        <v>4.2379779414659424E-2</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="17"/>
+        <v>0.22602549021394225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AH25:AH27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q4" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09453017-EF64-42A4-9291-40685EE380F0}">
+  <dimension ref="B1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1">
+        <f>RADIANS(18.1871)</f>
+        <v>0.31742477638946071</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1">
+        <f>-(2*K6+K8)*K2/6</f>
+        <v>30.93415890468231</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>7.6158000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <f>10*C4*C2/20</f>
+        <v>4.2001137000000002</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>8.4951000000000008</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2">
+        <f>-(K6+2*K8)*K2/6</f>
+        <v>48.610821135929335</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
+        <v>-10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3">
+        <f>-(7*$K$5+3*$K$7)*$K$2/20</f>
+        <v>88.777752336194268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1.103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <f>5*C4*C2^2/60</f>
+        <v>5.3312043194100003</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>-50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4">
+        <f>-(3*$K$5+7*$K$7)*$K$2/20</f>
+        <v>153.34339039888101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <f>COS(K1)*K3</f>
+        <v>-9.500423488641502</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5">
+        <f>-(3*$K$5+2*$K$7)*$K$2^2/60</f>
+        <v>148.54979530796442</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
+        <f>SIN(K1)*K3</f>
+        <v>-3.1212102679039151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6">
+        <f>(2*$K$5+3*$K$7)*$K$2^2/60</f>
+        <v>-194.25742463349195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <f>COS(K1)*K4</f>
+        <v>-47.50211744320751</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
+        <f>SIN(K1)*K4</f>
+        <v>-15.606051339519574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>